--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Bmp6-Acvr1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Bmp6-Acvr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.99067074699387</v>
+        <v>8.651253000000001</v>
       </c>
       <c r="H2">
-        <v>6.99067074699387</v>
+        <v>25.953759</v>
       </c>
       <c r="I2">
-        <v>0.6784039665105981</v>
+        <v>0.7093228445646149</v>
       </c>
       <c r="J2">
-        <v>0.6784039665105981</v>
+        <v>0.7093228445646149</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.5692737915888</v>
+        <v>10.62804133333333</v>
       </c>
       <c r="N2">
-        <v>10.5692737915888</v>
+        <v>31.884124</v>
       </c>
       <c r="O2">
-        <v>0.1932983512410235</v>
+        <v>0.1901422379349035</v>
       </c>
       <c r="P2">
-        <v>0.1932983512410235</v>
+        <v>0.1901422379349035</v>
       </c>
       <c r="Q2">
-        <v>73.88631311182881</v>
+        <v>91.94587446912401</v>
       </c>
       <c r="R2">
-        <v>73.88631311182881</v>
+        <v>827.512870222116</v>
       </c>
       <c r="S2">
-        <v>0.1311343682018691</v>
+        <v>0.1348722330838676</v>
       </c>
       <c r="T2">
-        <v>0.1311343682018691</v>
+        <v>0.1348722330838676</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.99067074699387</v>
+        <v>8.651253000000001</v>
       </c>
       <c r="H3">
-        <v>6.99067074699387</v>
+        <v>25.953759</v>
       </c>
       <c r="I3">
-        <v>0.6784039665105981</v>
+        <v>0.7093228445646149</v>
       </c>
       <c r="J3">
-        <v>0.6784039665105981</v>
+        <v>0.7093228445646149</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>26.3653652832543</v>
+        <v>26.47935433333333</v>
       </c>
       <c r="N3">
-        <v>26.3653652832543</v>
+        <v>79.438063</v>
       </c>
       <c r="O3">
-        <v>0.4821884397749407</v>
+        <v>0.4737320390559845</v>
       </c>
       <c r="P3">
-        <v>0.4821884397749407</v>
+        <v>0.4737320390559846</v>
       </c>
       <c r="Q3">
-        <v>184.3115878194536</v>
+        <v>229.079593614313</v>
       </c>
       <c r="R3">
-        <v>184.3115878194536</v>
+        <v>2061.716342528817</v>
       </c>
       <c r="S3">
-        <v>0.3271185501488764</v>
+        <v>0.3360289575045862</v>
       </c>
       <c r="T3">
-        <v>0.3271185501488764</v>
+        <v>0.3360289575045862</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.99067074699387</v>
+        <v>8.651253000000001</v>
       </c>
       <c r="H4">
-        <v>6.99067074699387</v>
+        <v>25.953759</v>
       </c>
       <c r="I4">
-        <v>0.6784039665105981</v>
+        <v>0.7093228445646149</v>
       </c>
       <c r="J4">
-        <v>0.6784039665105981</v>
+        <v>0.7093228445646149</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.51700743896387</v>
+        <v>5.626917</v>
       </c>
       <c r="N4">
-        <v>5.51700743896387</v>
+        <v>16.880751</v>
       </c>
       <c r="O4">
-        <v>0.1008989323925792</v>
+        <v>0.1006690280454893</v>
       </c>
       <c r="P4">
-        <v>0.1008989323925792</v>
+        <v>0.1006690280454894</v>
       </c>
       <c r="Q4">
-        <v>38.5675825145123</v>
+        <v>48.679882577001</v>
       </c>
       <c r="R4">
-        <v>38.5675825145123</v>
+        <v>438.118943193009</v>
       </c>
       <c r="S4">
-        <v>0.06845023595181039</v>
+        <v>0.0714068413327815</v>
       </c>
       <c r="T4">
-        <v>0.06845023595181039</v>
+        <v>0.07140684133278151</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.99067074699387</v>
+        <v>8.651253000000001</v>
       </c>
       <c r="H5">
-        <v>6.99067074699387</v>
+        <v>25.953759</v>
       </c>
       <c r="I5">
-        <v>0.6784039665105981</v>
+        <v>0.7093228445646149</v>
       </c>
       <c r="J5">
-        <v>0.6784039665105981</v>
+        <v>0.7093228445646149</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.29842157658368</v>
+        <v>5.317432666666666</v>
       </c>
       <c r="N5">
-        <v>5.29842157658368</v>
+        <v>15.952298</v>
       </c>
       <c r="O5">
-        <v>0.09690127960811702</v>
+        <v>0.09513216175939111</v>
       </c>
       <c r="P5">
-        <v>0.09690127960811702</v>
+        <v>0.09513216175939114</v>
       </c>
       <c r="Q5">
-        <v>37.03952072066467</v>
+        <v>46.00245530979799</v>
       </c>
       <c r="R5">
-        <v>37.03952072066467</v>
+        <v>414.022097788182</v>
       </c>
       <c r="S5">
-        <v>0.06573821244609912</v>
+        <v>0.06747941558875238</v>
       </c>
       <c r="T5">
-        <v>0.06573821244609912</v>
+        <v>0.06747941558875241</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.99067074699387</v>
+        <v>8.651253000000001</v>
       </c>
       <c r="H6">
-        <v>6.99067074699387</v>
+        <v>25.953759</v>
       </c>
       <c r="I6">
-        <v>0.6784039665105981</v>
+        <v>0.7093228445646149</v>
       </c>
       <c r="J6">
-        <v>0.6784039665105981</v>
+        <v>0.7093228445646149</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.92848309088656</v>
+        <v>7.84347</v>
       </c>
       <c r="N6">
-        <v>6.92848309088656</v>
+        <v>23.53041</v>
       </c>
       <c r="O6">
-        <v>0.1267129969833396</v>
+        <v>0.1403245332042314</v>
       </c>
       <c r="P6">
-        <v>0.1267129969833396</v>
+        <v>0.1403245332042315</v>
       </c>
       <c r="Q6">
-        <v>48.43474406450234</v>
+        <v>67.85584336791</v>
       </c>
       <c r="R6">
-        <v>48.43474406450234</v>
+        <v>610.7025903111901</v>
       </c>
       <c r="S6">
-        <v>0.08596259976194305</v>
+        <v>0.0995353970546272</v>
       </c>
       <c r="T6">
-        <v>0.08596259976194305</v>
+        <v>0.09953539705462722</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.72772175741734</v>
+        <v>1.744136</v>
       </c>
       <c r="H7">
-        <v>1.72772175741734</v>
+        <v>5.232408</v>
       </c>
       <c r="I7">
-        <v>0.1676653551109683</v>
+        <v>0.143003043469836</v>
       </c>
       <c r="J7">
-        <v>0.1676653551109683</v>
+        <v>0.143003043469836</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.5692737915888</v>
+        <v>10.62804133333333</v>
       </c>
       <c r="N7">
-        <v>10.5692737915888</v>
+        <v>31.884124</v>
       </c>
       <c r="O7">
-        <v>0.1932983512410235</v>
+        <v>0.1901422379349035</v>
       </c>
       <c r="P7">
-        <v>0.1932983512410235</v>
+        <v>0.1901422379349035</v>
       </c>
       <c r="Q7">
-        <v>18.26076428982883</v>
+        <v>18.53674949895467</v>
       </c>
       <c r="R7">
-        <v>18.26076428982883</v>
+        <v>166.830745490592</v>
       </c>
       <c r="S7">
-        <v>0.03240943670319087</v>
+        <v>0.0271909187168569</v>
       </c>
       <c r="T7">
-        <v>0.03240943670319087</v>
+        <v>0.02719091871685691</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.72772175741734</v>
+        <v>1.744136</v>
       </c>
       <c r="H8">
-        <v>1.72772175741734</v>
+        <v>5.232408</v>
       </c>
       <c r="I8">
-        <v>0.1676653551109683</v>
+        <v>0.143003043469836</v>
       </c>
       <c r="J8">
-        <v>0.1676653551109683</v>
+        <v>0.143003043469836</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>26.3653652832543</v>
+        <v>26.47935433333333</v>
       </c>
       <c r="N8">
-        <v>26.3653652832543</v>
+        <v>79.438063</v>
       </c>
       <c r="O8">
-        <v>0.4821884397749407</v>
+        <v>0.4737320390559845</v>
       </c>
       <c r="P8">
-        <v>0.4821884397749407</v>
+        <v>0.4737320390559846</v>
       </c>
       <c r="Q8">
-        <v>45.55201524213424</v>
+        <v>46.18359514952267</v>
       </c>
       <c r="R8">
-        <v>45.55201524213424</v>
+        <v>415.652356345704</v>
       </c>
       <c r="S8">
-        <v>0.08084629598526917</v>
+        <v>0.067745123374177</v>
       </c>
       <c r="T8">
-        <v>0.08084629598526917</v>
+        <v>0.06774512337417701</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.72772175741734</v>
+        <v>1.744136</v>
       </c>
       <c r="H9">
-        <v>1.72772175741734</v>
+        <v>5.232408</v>
       </c>
       <c r="I9">
-        <v>0.1676653551109683</v>
+        <v>0.143003043469836</v>
       </c>
       <c r="J9">
-        <v>0.1676653551109683</v>
+        <v>0.143003043469836</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.51700743896387</v>
+        <v>5.626917</v>
       </c>
       <c r="N9">
-        <v>5.51700743896387</v>
+        <v>16.880751</v>
       </c>
       <c r="O9">
-        <v>0.1008989323925792</v>
+        <v>0.1006690280454893</v>
       </c>
       <c r="P9">
-        <v>0.1008989323925792</v>
+        <v>0.1006690280454894</v>
       </c>
       <c r="Q9">
-        <v>9.531853788131196</v>
+        <v>9.814108508712</v>
       </c>
       <c r="R9">
-        <v>9.531853788131196</v>
+        <v>88.32697657840801</v>
       </c>
       <c r="S9">
-        <v>0.01691725532991937</v>
+        <v>0.01439597739365525</v>
       </c>
       <c r="T9">
-        <v>0.01691725532991937</v>
+        <v>0.01439597739365525</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.72772175741734</v>
+        <v>1.744136</v>
       </c>
       <c r="H10">
-        <v>1.72772175741734</v>
+        <v>5.232408</v>
       </c>
       <c r="I10">
-        <v>0.1676653551109683</v>
+        <v>0.143003043469836</v>
       </c>
       <c r="J10">
-        <v>0.1676653551109683</v>
+        <v>0.143003043469836</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.29842157658368</v>
+        <v>5.317432666666666</v>
       </c>
       <c r="N10">
-        <v>5.29842157658368</v>
+        <v>15.952298</v>
       </c>
       <c r="O10">
-        <v>0.09690127960811702</v>
+        <v>0.09513216175939111</v>
       </c>
       <c r="P10">
-        <v>0.09690127960811702</v>
+        <v>0.09513216175939114</v>
       </c>
       <c r="Q10">
-        <v>9.154198237833109</v>
+        <v>9.274325741509333</v>
       </c>
       <c r="R10">
-        <v>9.154198237833109</v>
+        <v>83.468931673584</v>
       </c>
       <c r="S10">
-        <v>0.01624698745620217</v>
+        <v>0.01360418866345768</v>
       </c>
       <c r="T10">
-        <v>0.01624698745620217</v>
+        <v>0.01360418866345768</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.72772175741734</v>
+        <v>1.744136</v>
       </c>
       <c r="H11">
-        <v>1.72772175741734</v>
+        <v>5.232408</v>
       </c>
       <c r="I11">
-        <v>0.1676653551109683</v>
+        <v>0.143003043469836</v>
       </c>
       <c r="J11">
-        <v>0.1676653551109683</v>
+        <v>0.143003043469836</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.92848309088656</v>
+        <v>7.84347</v>
       </c>
       <c r="N11">
-        <v>6.92848309088656</v>
+        <v>23.53041</v>
       </c>
       <c r="O11">
-        <v>0.1267129969833396</v>
+        <v>0.1403245332042314</v>
       </c>
       <c r="P11">
-        <v>0.1267129969833396</v>
+        <v>0.1403245332042315</v>
       </c>
       <c r="Q11">
-        <v>11.97049098202285</v>
+        <v>13.68007839192</v>
       </c>
       <c r="R11">
-        <v>11.97049098202285</v>
+        <v>123.12070552728</v>
       </c>
       <c r="S11">
-        <v>0.02124537963638669</v>
+        <v>0.02006683532168915</v>
       </c>
       <c r="T11">
-        <v>0.02124537963638669</v>
+        <v>0.02006683532168916</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1157,49 +1157,49 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>1.5861916255294</v>
+        <v>0.004305666666666667</v>
       </c>
       <c r="H12">
-        <v>1.5861916255294</v>
+        <v>0.012917</v>
       </c>
       <c r="I12">
-        <v>0.1539306783784337</v>
+        <v>0.0003530249002944479</v>
       </c>
       <c r="J12">
-        <v>0.1539306783784337</v>
+        <v>0.0003530249002944479</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.5692737915888</v>
+        <v>10.62804133333333</v>
       </c>
       <c r="N12">
-        <v>10.5692737915888</v>
+        <v>31.884124</v>
       </c>
       <c r="O12">
-        <v>0.1932983512410235</v>
+        <v>0.1901422379349035</v>
       </c>
       <c r="P12">
-        <v>0.1932983512410235</v>
+        <v>0.1901422379349035</v>
       </c>
       <c r="Q12">
-        <v>16.76489357614552</v>
+        <v>0.04576080330088889</v>
       </c>
       <c r="R12">
-        <v>16.76489357614552</v>
+        <v>0.411847229708</v>
       </c>
       <c r="S12">
-        <v>0.0297545463359635</v>
+        <v>6.712494458873248E-05</v>
       </c>
       <c r="T12">
-        <v>0.0297545463359635</v>
+        <v>6.71249445887325E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1219,49 +1219,49 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>1.5861916255294</v>
+        <v>0.004305666666666667</v>
       </c>
       <c r="H13">
-        <v>1.5861916255294</v>
+        <v>0.012917</v>
       </c>
       <c r="I13">
-        <v>0.1539306783784337</v>
+        <v>0.0003530249002944479</v>
       </c>
       <c r="J13">
-        <v>0.1539306783784337</v>
+        <v>0.0003530249002944479</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>26.3653652832543</v>
+        <v>26.47935433333333</v>
       </c>
       <c r="N13">
-        <v>26.3653652832543</v>
+        <v>79.438063</v>
       </c>
       <c r="O13">
-        <v>0.4821884397749407</v>
+        <v>0.4737320390559845</v>
       </c>
       <c r="P13">
-        <v>0.4821884397749407</v>
+        <v>0.4737320390559846</v>
       </c>
       <c r="Q13">
-        <v>41.82052161632154</v>
+        <v>0.1140112733078889</v>
       </c>
       <c r="R13">
-        <v>41.82052161632154</v>
+        <v>1.026101459771</v>
       </c>
       <c r="S13">
-        <v>0.07422359364079514</v>
+        <v>0.0001672392058540244</v>
       </c>
       <c r="T13">
-        <v>0.07422359364079514</v>
+        <v>0.0001672392058540245</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>1.5861916255294</v>
+        <v>0.004305666666666667</v>
       </c>
       <c r="H14">
-        <v>1.5861916255294</v>
+        <v>0.012917</v>
       </c>
       <c r="I14">
-        <v>0.1539306783784337</v>
+        <v>0.0003530249002944479</v>
       </c>
       <c r="J14">
-        <v>0.1539306783784337</v>
+        <v>0.0003530249002944479</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.51700743896387</v>
+        <v>5.626917</v>
       </c>
       <c r="N14">
-        <v>5.51700743896387</v>
+        <v>16.880751</v>
       </c>
       <c r="O14">
-        <v>0.1008989323925792</v>
+        <v>0.1006690280454893</v>
       </c>
       <c r="P14">
-        <v>0.1008989323925792</v>
+        <v>0.1006690280454894</v>
       </c>
       <c r="Q14">
-        <v>8.751030997667893</v>
+        <v>0.024227628963</v>
       </c>
       <c r="R14">
-        <v>8.751030997667893</v>
+        <v>0.218048660667</v>
       </c>
       <c r="S14">
-        <v>0.01553144111084943</v>
+        <v>3.553867358849786E-05</v>
       </c>
       <c r="T14">
-        <v>0.01553144111084943</v>
+        <v>3.553867358849786E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>1.5861916255294</v>
+        <v>0.004305666666666667</v>
       </c>
       <c r="H15">
-        <v>1.5861916255294</v>
+        <v>0.012917</v>
       </c>
       <c r="I15">
-        <v>0.1539306783784337</v>
+        <v>0.0003530249002944479</v>
       </c>
       <c r="J15">
-        <v>0.1539306783784337</v>
+        <v>0.0003530249002944479</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.29842157658368</v>
+        <v>5.317432666666666</v>
       </c>
       <c r="N15">
-        <v>5.29842157658368</v>
+        <v>15.952298</v>
       </c>
       <c r="O15">
-        <v>0.09690127960811702</v>
+        <v>0.09513216175939111</v>
       </c>
       <c r="P15">
-        <v>0.09690127960811702</v>
+        <v>0.09513216175939114</v>
       </c>
       <c r="Q15">
-        <v>8.404311933301313</v>
+        <v>0.02289509258511111</v>
       </c>
       <c r="R15">
-        <v>8.404311933301313</v>
+        <v>0.206055833266</v>
       </c>
       <c r="S15">
-        <v>0.01491607970581574</v>
+        <v>3.358402191990434E-05</v>
       </c>
       <c r="T15">
-        <v>0.01491607970581574</v>
+        <v>3.358402191990434E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,371 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.004305666666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.012917</v>
+      </c>
+      <c r="I16">
+        <v>0.0003530249002944479</v>
+      </c>
+      <c r="J16">
+        <v>0.0003530249002944479</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>7.84347</v>
+      </c>
+      <c r="N16">
+        <v>23.53041</v>
+      </c>
+      <c r="O16">
+        <v>0.1403245332042314</v>
+      </c>
+      <c r="P16">
+        <v>0.1403245332042315</v>
+      </c>
+      <c r="Q16">
+        <v>0.03377136733</v>
+      </c>
+      <c r="R16">
+        <v>0.30394230597</v>
+      </c>
+      <c r="S16">
+        <v>4.953805434328875E-05</v>
+      </c>
+      <c r="T16">
+        <v>4.953805434328876E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.796801</v>
+      </c>
+      <c r="H17">
+        <v>5.390403</v>
+      </c>
+      <c r="I17">
+        <v>0.1473210870652545</v>
+      </c>
+      <c r="J17">
+        <v>0.1473210870652545</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>10.62804133333333</v>
+      </c>
+      <c r="N17">
+        <v>31.884124</v>
+      </c>
+      <c r="O17">
+        <v>0.1901422379349035</v>
+      </c>
+      <c r="P17">
+        <v>0.1901422379349035</v>
+      </c>
+      <c r="Q17">
+        <v>19.09647529577467</v>
+      </c>
+      <c r="R17">
+        <v>171.868277661972</v>
+      </c>
+      <c r="S17">
+        <v>0.02801196118959026</v>
+      </c>
+      <c r="T17">
+        <v>0.02801196118959027</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.796801</v>
+      </c>
+      <c r="H18">
+        <v>5.390403</v>
+      </c>
+      <c r="I18">
+        <v>0.1473210870652545</v>
+      </c>
+      <c r="J18">
+        <v>0.1473210870652545</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>26.47935433333333</v>
+      </c>
+      <c r="N18">
+        <v>79.438063</v>
+      </c>
+      <c r="O18">
+        <v>0.4737320390559845</v>
+      </c>
+      <c r="P18">
+        <v>0.4737320390559846</v>
+      </c>
+      <c r="Q18">
+        <v>47.57813034548767</v>
+      </c>
+      <c r="R18">
+        <v>428.203173109389</v>
+      </c>
+      <c r="S18">
+        <v>0.06979071897136725</v>
+      </c>
+      <c r="T18">
+        <v>0.06979071897136727</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.796801</v>
+      </c>
+      <c r="H19">
+        <v>5.390403</v>
+      </c>
+      <c r="I19">
+        <v>0.1473210870652545</v>
+      </c>
+      <c r="J19">
+        <v>0.1473210870652545</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>5.626917</v>
+      </c>
+      <c r="N19">
+        <v>16.880751</v>
+      </c>
+      <c r="O19">
+        <v>0.1006690280454893</v>
+      </c>
+      <c r="P19">
+        <v>0.1006690280454894</v>
+      </c>
+      <c r="Q19">
+        <v>10.110450092517</v>
+      </c>
+      <c r="R19">
+        <v>90.994050832653</v>
+      </c>
+      <c r="S19">
+        <v>0.01483067064546409</v>
+      </c>
+      <c r="T19">
+        <v>0.01483067064546409</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>1.5861916255294</v>
-      </c>
-      <c r="H16">
-        <v>1.5861916255294</v>
-      </c>
-      <c r="I16">
-        <v>0.1539306783784337</v>
-      </c>
-      <c r="J16">
-        <v>0.1539306783784337</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>6.92848309088656</v>
-      </c>
-      <c r="N16">
-        <v>6.92848309088656</v>
-      </c>
-      <c r="O16">
-        <v>0.1267129969833396</v>
-      </c>
-      <c r="P16">
-        <v>0.1267129969833396</v>
-      </c>
-      <c r="Q16">
-        <v>10.98990185638631</v>
-      </c>
-      <c r="R16">
-        <v>10.98990185638631</v>
-      </c>
-      <c r="S16">
-        <v>0.01950501758500989</v>
-      </c>
-      <c r="T16">
-        <v>0.01950501758500989</v>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.796801</v>
+      </c>
+      <c r="H20">
+        <v>5.390403</v>
+      </c>
+      <c r="I20">
+        <v>0.1473210870652545</v>
+      </c>
+      <c r="J20">
+        <v>0.1473210870652545</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>5.317432666666666</v>
+      </c>
+      <c r="N20">
+        <v>15.952298</v>
+      </c>
+      <c r="O20">
+        <v>0.09513216175939111</v>
+      </c>
+      <c r="P20">
+        <v>0.09513216175939114</v>
+      </c>
+      <c r="Q20">
+        <v>9.554368332899333</v>
+      </c>
+      <c r="R20">
+        <v>85.989314996094</v>
+      </c>
+      <c r="S20">
+        <v>0.01401497348526114</v>
+      </c>
+      <c r="T20">
+        <v>0.01401497348526114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.796801</v>
+      </c>
+      <c r="H21">
+        <v>5.390403</v>
+      </c>
+      <c r="I21">
+        <v>0.1473210870652545</v>
+      </c>
+      <c r="J21">
+        <v>0.1473210870652545</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>7.84347</v>
+      </c>
+      <c r="N21">
+        <v>23.53041</v>
+      </c>
+      <c r="O21">
+        <v>0.1403245332042314</v>
+      </c>
+      <c r="P21">
+        <v>0.1403245332042315</v>
+      </c>
+      <c r="Q21">
+        <v>14.09315473947</v>
+      </c>
+      <c r="R21">
+        <v>126.83839265523</v>
+      </c>
+      <c r="S21">
+        <v>0.02067276277357178</v>
+      </c>
+      <c r="T21">
+        <v>0.02067276277357179</v>
       </c>
     </row>
   </sheetData>
